--- a/Case/CS1/FCF.xlsx
+++ b/Case/CS1/FCF.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Case/CS1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Case/CS1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="29600" windowHeight="16200" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="Free Cash Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="NPV-TAX" sheetId="3" r:id="rId2"/>
+    <sheet name="NPV" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Revenue projection</t>
   </si>
@@ -171,19 +179,60 @@
     <t>Terminal Value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Free Cash Flow</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Debt / Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis - Debt / Value</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis - Market Risk Premium(D/V = 20%)</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis - Corporate Tax Rate(D/V = 20%)</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.00;\(#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -195,7 +244,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -231,6 +280,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,12 +304,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -254,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,7 +407,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -276,9 +420,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -291,6 +516,870 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'NPV-TAX'!$O$45:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>27057.47782297817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26425.65099886679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25793.267146309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25160.32575452528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24526.82631223358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23892.76830764925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23258.15122848385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22622.974561945</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21987.2377947358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21350.94041305444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20714.0819025933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="70576448"/>
+        <c:axId val="70440096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70576448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70440096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70440096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70576448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,15 +1681,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="8"/>
+    <col min="1" max="1" width="32.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -613,7 +1704,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +1742,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,7 +1777,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -721,7 +1812,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,7 +1857,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +1892,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -836,7 +1927,7 @@
         <v>143841</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -849,7 +1940,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -864,7 +1955,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -899,7 +1990,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -944,7 +2035,7 @@
         <v>70040</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,7 +2070,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +2105,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1027,7 +2118,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +2133,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +2168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +2203,7 @@
         <v>218.1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +2238,7 @@
         <v>1744.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1160,7 +2251,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +2266,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +2301,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +2336,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +2381,7 @@
         <v>54520</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +2416,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +2451,7 @@
         <v>33700.699999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1373,7 +2464,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -1408,7 +2499,7 @@
         <v>35445</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>40</v>
       </c>
@@ -1453,7 +2544,7 @@
         <v>113118</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -1488,97 +2579,97 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="9">
-        <f>C7*C29</f>
+        <f t="shared" ref="C30:L30" si="4">C7*C29</f>
         <v>6626.88</v>
       </c>
       <c r="D30" s="9">
-        <f>D7*D29</f>
+        <f t="shared" si="4"/>
         <v>7322.7179999999998</v>
       </c>
       <c r="E30" s="9">
-        <f>E7*E29</f>
+        <f t="shared" si="4"/>
         <v>8043.6719999999996</v>
       </c>
       <c r="F30" s="9">
-        <f>F7*F29</f>
+        <f t="shared" si="4"/>
         <v>8790.6</v>
       </c>
       <c r="G30" s="9">
-        <f>G7*G29</f>
+        <f t="shared" si="4"/>
         <v>9564.2039999999997</v>
       </c>
       <c r="H30" s="9">
-        <f>H7*H29</f>
+        <f t="shared" si="4"/>
         <v>10365.186</v>
       </c>
       <c r="I30" s="9">
-        <f>I7*I29</f>
+        <f t="shared" si="4"/>
         <v>10572.51</v>
       </c>
       <c r="J30" s="9">
-        <f>J7*J29</f>
+        <f t="shared" si="4"/>
         <v>10783.968000000001</v>
       </c>
       <c r="K30" s="9">
-        <f>K7*K29</f>
+        <f t="shared" si="4"/>
         <v>10999.638000000001</v>
       </c>
       <c r="L30" s="9">
-        <f>L7*L29</f>
+        <f t="shared" si="4"/>
         <v>11219.598</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="8">
-        <f>C7 - SUM(C11:C13) - C27 - C30</f>
+        <f t="shared" ref="C31:L31" si="5">C7 - SUM(C11:C13) - C27 - C30</f>
         <v>8723.119999999999</v>
       </c>
       <c r="D31" s="8">
-        <f>D7 - SUM(D11:D13) - D27 - D30</f>
+        <f t="shared" si="5"/>
         <v>10898.982</v>
       </c>
       <c r="E31" s="8">
-        <f>E7 - SUM(E11:E13) - E27 - E30</f>
+        <f t="shared" si="5"/>
         <v>12271.928</v>
       </c>
       <c r="F31" s="8">
-        <f>F7 - SUM(F11:F13) - F27 - F30</f>
+        <f t="shared" si="5"/>
         <v>14061.800000000001</v>
       </c>
       <c r="G31" s="8">
-        <f>G7 - SUM(G11:G13) - G27 - G30</f>
+        <f t="shared" si="5"/>
         <v>15574.996000000001</v>
       </c>
       <c r="H31" s="8">
-        <f>H7 - SUM(H11:H13) - H27 - H30</f>
+        <f t="shared" si="5"/>
         <v>17537.313999999998</v>
       </c>
       <c r="I31" s="8">
-        <f>I7 - SUM(I11:I13) - I27 - I30</f>
+        <f t="shared" si="5"/>
         <v>18016.89</v>
       </c>
       <c r="J31" s="8">
-        <f>J7 - SUM(J11:J13) - J27 - J30</f>
+        <f t="shared" si="5"/>
         <v>18508.531999999999</v>
       </c>
       <c r="K31" s="8">
-        <f>K7 - SUM(K11:K13) - K27 - K30</f>
+        <f t="shared" si="5"/>
         <v>19004.762000000002</v>
       </c>
       <c r="L31" s="8">
-        <f>L7 - SUM(L11:L13) - L27 - L30</f>
+        <f t="shared" si="5"/>
         <v>19503.402000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -1613,52 +2704,52 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="8">
-        <f>C31-C32</f>
+        <f t="shared" ref="C33:L33" si="6">C31-C32</f>
         <v>4723.119999999999</v>
       </c>
       <c r="D33" s="8">
-        <f>D31-D32</f>
+        <f t="shared" si="6"/>
         <v>6898.982</v>
       </c>
       <c r="E33" s="8">
-        <f>E31-E32</f>
+        <f t="shared" si="6"/>
         <v>8271.9279999999999</v>
       </c>
       <c r="F33" s="8">
-        <f>F31-F32</f>
+        <f t="shared" si="6"/>
         <v>10061.800000000001</v>
       </c>
       <c r="G33" s="8">
-        <f>G31-G32</f>
+        <f t="shared" si="6"/>
         <v>11574.996000000001</v>
       </c>
       <c r="H33" s="8">
-        <f>H31-H32</f>
+        <f t="shared" si="6"/>
         <v>13537.313999999998</v>
       </c>
       <c r="I33" s="8">
-        <f>I31-I32</f>
+        <f t="shared" si="6"/>
         <v>14016.89</v>
       </c>
       <c r="J33" s="8">
-        <f>J31-J32</f>
+        <f t="shared" si="6"/>
         <v>14508.531999999999</v>
       </c>
       <c r="K33" s="8">
-        <f>K31-K32</f>
+        <f t="shared" si="6"/>
         <v>15004.762000000002</v>
       </c>
       <c r="L33" s="8">
-        <f>L31-L32</f>
+        <f t="shared" si="6"/>
         <v>15503.402000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -1667,43 +2758,43 @@
         <v>1889.2479999999996</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34:L34" si="4">D33*0.4</f>
+        <f t="shared" ref="D34:L34" si="7">D33*0.4</f>
         <v>2759.5928000000004</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3308.7712000000001</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4024.7200000000007</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4629.9984000000004</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5414.9255999999996</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5606.7560000000003</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5803.4128000000001</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6001.9048000000012</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6201.3608000000013</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
@@ -1712,43 +2803,43 @@
         <v>2833.8719999999994</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" ref="D35:L35" si="5">D33-D34</f>
+        <f t="shared" ref="D35:L35" si="8">D33-D34</f>
         <v>4139.3891999999996</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4963.1567999999997</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6037.08</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6944.9976000000006</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8122.3883999999989</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8410.1339999999982</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8705.1191999999992</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9002.8572000000022</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9302.0411999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>31</v>
       </c>
@@ -1757,43 +2848,43 @@
         <v>4000</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" ref="D36:L36" si="6">D32</f>
+        <f t="shared" ref="D36:L36" si="9">D32</f>
         <v>4000</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1801,92 +2892,92 @@
         <v>12817</v>
       </c>
       <c r="C37" s="8">
-        <f>C45 + C47 - C49</f>
+        <f t="shared" ref="C37:L37" si="10">C45 + C47 - C49</f>
         <v>11891.027777777777</v>
       </c>
       <c r="D37" s="8">
-        <f>D45 + D47 - D49</f>
+        <f t="shared" si="10"/>
         <v>13127.7145</v>
       </c>
       <c r="E37" s="8">
-        <f>E45 + E47 - E49</f>
+        <f t="shared" si="10"/>
         <v>14417.363777777779</v>
       </c>
       <c r="F37" s="8">
-        <f>F45 + F47 - F49</f>
+        <f t="shared" si="10"/>
         <v>15750.005111111113</v>
       </c>
       <c r="G37" s="8">
-        <f>G45 + G47 - G49</f>
+        <f t="shared" si="10"/>
         <v>17133.457555555557</v>
       </c>
       <c r="H37" s="8">
-        <f>H45 + H47 - H49</f>
+        <f t="shared" si="10"/>
         <v>18562.134722222221</v>
       </c>
       <c r="I37" s="8">
-        <f>I45 + I47 - I49</f>
+        <f t="shared" si="10"/>
         <v>18932.197333333337</v>
       </c>
       <c r="J37" s="8">
-        <f>J45 + J47 - J49</f>
+        <f t="shared" si="10"/>
         <v>19309.615277777779</v>
       </c>
       <c r="K37" s="8">
-        <f>K45 + K47 - K49</f>
+        <f t="shared" si="10"/>
         <v>19694.600111111111</v>
       </c>
       <c r="L37" s="8">
-        <f>L45 + L47 - L49</f>
+        <f t="shared" si="10"/>
         <v>20087.313333333332</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="9">
-        <f>C37-B37</f>
+        <f t="shared" ref="C38:L38" si="11">C37-B37</f>
         <v>-925.97222222222263</v>
       </c>
       <c r="D38" s="9">
-        <f>D37-C37</f>
+        <f t="shared" si="11"/>
         <v>1236.6867222222227</v>
       </c>
       <c r="E38" s="9">
-        <f>E37-D37</f>
+        <f t="shared" si="11"/>
         <v>1289.6492777777785</v>
       </c>
       <c r="F38" s="9">
-        <f>F37-E37</f>
+        <f t="shared" si="11"/>
         <v>1332.6413333333348</v>
       </c>
       <c r="G38" s="9">
-        <f>G37-F37</f>
+        <f t="shared" si="11"/>
         <v>1383.4524444444432</v>
       </c>
       <c r="H38" s="9">
-        <f>H37-G37</f>
+        <f t="shared" si="11"/>
         <v>1428.6771666666646</v>
       </c>
       <c r="I38" s="9">
-        <f>I37-H37</f>
+        <f t="shared" si="11"/>
         <v>370.06261111111598</v>
       </c>
       <c r="J38" s="9">
-        <f>J37-I37</f>
+        <f t="shared" si="11"/>
         <v>377.41794444444167</v>
       </c>
       <c r="K38" s="9">
-        <f>K37-J37</f>
+        <f t="shared" si="11"/>
         <v>384.98483333333206</v>
       </c>
       <c r="L38" s="9">
-        <f>L37-K37</f>
+        <f t="shared" si="11"/>
         <v>392.71322222222079</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -1904,7 +2995,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
@@ -1912,44 +3003,47 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="B41" s="8">
+        <v>-45000</v>
+      </c>
       <c r="C41" s="8">
-        <f>C35 + C36 - C38 - C39</f>
+        <f t="shared" ref="C41:K41" si="12">C35 + C36 - C38 - C39</f>
         <v>7759.844222222222</v>
       </c>
       <c r="D41" s="8">
-        <f>D35 + D36 - D38 - D39</f>
+        <f t="shared" si="12"/>
         <v>6902.7024777777769</v>
       </c>
       <c r="E41" s="8">
-        <f>E35 + E36 - E38 - E39</f>
+        <f t="shared" si="12"/>
         <v>7673.5075222222222</v>
       </c>
       <c r="F41" s="8">
-        <f>F35 + F36 - F38 - F39</f>
+        <f t="shared" si="12"/>
         <v>8704.4386666666651</v>
       </c>
       <c r="G41" s="8">
-        <f>G35 + G36 - G38 - G39</f>
+        <f t="shared" si="12"/>
         <v>9561.5451555555574</v>
       </c>
       <c r="H41" s="8">
-        <f>H35 + H36 - H38 - H39</f>
+        <f t="shared" si="12"/>
         <v>10693.711233333335</v>
       </c>
       <c r="I41" s="8">
-        <f>I35 + I36 - I38 - I39</f>
+        <f t="shared" si="12"/>
         <v>12040.071388888882</v>
       </c>
       <c r="J41" s="8">
-        <f>J35 + J36 - J38 - J39</f>
+        <f t="shared" si="12"/>
         <v>12327.701255555558</v>
       </c>
       <c r="K41" s="8">
-        <f>K35 + K36 - K38 - K39</f>
+        <f t="shared" si="12"/>
         <v>12617.87236666667</v>
       </c>
       <c r="L41" s="8">
@@ -1957,7 +3051,7 @@
         <v>32909.327977777779</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -1972,7 +3066,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -2007,52 +3101,52 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="8">
-        <f>C44 * C7 / 360</f>
+        <f t="shared" ref="C45:L45" si="13">C44 * C7 / 360</f>
         <v>11233.6</v>
       </c>
       <c r="D45" s="8">
-        <f>D44 * D7 / 360</f>
+        <f t="shared" si="13"/>
         <v>12413.154444444446</v>
       </c>
       <c r="E45" s="8">
-        <f>E44 * E7 / 360</f>
+        <f t="shared" si="13"/>
         <v>13635.284444444445</v>
       </c>
       <c r="F45" s="8">
-        <f>F44 * F7 / 360</f>
+        <f t="shared" si="13"/>
         <v>14901.444444444445</v>
       </c>
       <c r="G45" s="8">
-        <f>G44 * G7 / 360</f>
+        <f t="shared" si="13"/>
         <v>16212.824444444444</v>
       </c>
       <c r="H45" s="8">
-        <f>H44 * H7 / 360</f>
+        <f t="shared" si="13"/>
         <v>17570.614444444444</v>
       </c>
       <c r="I45" s="8">
-        <f>I44 * I7 / 360</f>
+        <f t="shared" si="13"/>
         <v>17922.06111111111</v>
       </c>
       <c r="J45" s="8">
-        <f>J44 * J7 / 360</f>
+        <f t="shared" si="13"/>
         <v>18280.515555555558</v>
       </c>
       <c r="K45" s="8">
-        <f>K44 * K7 / 360</f>
+        <f t="shared" si="13"/>
         <v>18646.11</v>
       </c>
       <c r="L45" s="8">
-        <f>L44 * L7 / 360</f>
+        <f t="shared" si="13"/>
         <v>19018.976666666669</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -2087,52 +3181,52 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="8">
-        <f>C46 * C28 / 360</f>
+        <f t="shared" ref="C47:L47" si="14">C46 * C28 / 360</f>
         <v>7270.3777777777777</v>
       </c>
       <c r="D47" s="8">
-        <f>D46 * D28 / 360</f>
+        <f t="shared" si="14"/>
         <v>7902.1935555555556</v>
       </c>
       <c r="E47" s="8">
-        <f>E46 * E28 / 360</f>
+        <f t="shared" si="14"/>
         <v>8648.8773333333338</v>
       </c>
       <c r="F47" s="8">
-        <f>F46 * F28 / 360</f>
+        <f t="shared" si="14"/>
         <v>9384.0826666666671</v>
       </c>
       <c r="G47" s="8">
-        <f>G46 * G28 / 360</f>
+        <f t="shared" si="14"/>
         <v>10181.119111111113</v>
       </c>
       <c r="H47" s="8">
-        <f>H46 * H28 / 360</f>
+        <f t="shared" si="14"/>
         <v>10965.047777777778</v>
       </c>
       <c r="I47" s="8">
-        <f>I46 * I28 / 360</f>
+        <f t="shared" si="14"/>
         <v>11170.918222222224</v>
       </c>
       <c r="J47" s="8">
-        <f>J46 * J28 / 360</f>
+        <f t="shared" si="14"/>
         <v>11380.632222222222</v>
       </c>
       <c r="K47" s="8">
-        <f>K46 * K28 / 360</f>
+        <f t="shared" si="14"/>
         <v>11595.067111111111</v>
       </c>
       <c r="L47" s="8">
-        <f>L46 * L28 / 360</f>
+        <f t="shared" si="14"/>
         <v>11814.546666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -2167,48 +3261,48 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="8">
-        <f>C48 * C28 / 360</f>
+        <f t="shared" ref="C49:L49" si="15">C48 * C28 / 360</f>
         <v>6612.95</v>
       </c>
       <c r="D49" s="8">
-        <f>D48 * D28 / 360</f>
+        <f t="shared" si="15"/>
         <v>7187.6335000000017</v>
       </c>
       <c r="E49" s="8">
-        <f>E48 * E28 / 360</f>
+        <f t="shared" si="15"/>
         <v>7866.7980000000007</v>
       </c>
       <c r="F49" s="8">
-        <f>F48 * F28 / 360</f>
+        <f t="shared" si="15"/>
         <v>8535.5220000000008</v>
       </c>
       <c r="G49" s="8">
-        <f>G48 * G28 / 360</f>
+        <f t="shared" si="15"/>
         <v>9260.4860000000008</v>
       </c>
       <c r="H49" s="8">
-        <f>H48 * H28 / 360</f>
+        <f t="shared" si="15"/>
         <v>9973.5275000000001</v>
       </c>
       <c r="I49" s="8">
-        <f>I48 * I28 / 360</f>
+        <f t="shared" si="15"/>
         <v>10160.782000000001</v>
       </c>
       <c r="J49" s="8">
-        <f>J48 * J28 / 360</f>
+        <f t="shared" si="15"/>
         <v>10351.532500000001</v>
       </c>
       <c r="K49" s="8">
-        <f>K48 * K28 / 360</f>
+        <f t="shared" si="15"/>
         <v>10546.577000000001</v>
       </c>
       <c r="L49" s="8">
-        <f>L48 * L28 / 360</f>
+        <f t="shared" si="15"/>
         <v>10746.210000000001</v>
       </c>
     </row>
@@ -2216,4 +3310,3536 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B1" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <f>'Free Cash Flow'!C33</f>
+        <v>4723.119999999999</v>
+      </c>
+      <c r="D2">
+        <f>'Free Cash Flow'!D33</f>
+        <v>6898.982</v>
+      </c>
+      <c r="E2">
+        <f>'Free Cash Flow'!E33</f>
+        <v>8271.9279999999999</v>
+      </c>
+      <c r="F2">
+        <f>'Free Cash Flow'!F33</f>
+        <v>10061.800000000001</v>
+      </c>
+      <c r="G2">
+        <f>'Free Cash Flow'!G33</f>
+        <v>11574.996000000001</v>
+      </c>
+      <c r="H2">
+        <f>'Free Cash Flow'!H33</f>
+        <v>13537.313999999998</v>
+      </c>
+      <c r="I2">
+        <f>'Free Cash Flow'!I33</f>
+        <v>14016.89</v>
+      </c>
+      <c r="J2">
+        <f>'Free Cash Flow'!J33</f>
+        <v>14508.531999999999</v>
+      </c>
+      <c r="K2">
+        <f>'Free Cash Flow'!K33</f>
+        <v>15004.762000000002</v>
+      </c>
+      <c r="L2">
+        <f>'Free Cash Flow'!L33</f>
+        <v>15503.402000000002</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="23">
+        <f>C2 *$M3</f>
+        <v>1653.0919999999996</v>
+      </c>
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:L3" si="0">D2 *$M3</f>
+        <v>2414.6436999999996</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" si="0"/>
+        <v>2895.1747999999998</v>
+      </c>
+      <c r="F3" s="23">
+        <f t="shared" si="0"/>
+        <v>3521.63</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" si="0"/>
+        <v>4051.2485999999999</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" si="0"/>
+        <v>4738.0598999999993</v>
+      </c>
+      <c r="I3" s="23">
+        <f t="shared" si="0"/>
+        <v>4905.9114999999993</v>
+      </c>
+      <c r="J3" s="23">
+        <f t="shared" si="0"/>
+        <v>5077.9861999999994</v>
+      </c>
+      <c r="K3" s="23">
+        <f t="shared" si="0"/>
+        <v>5251.6667000000007</v>
+      </c>
+      <c r="L3" s="23">
+        <f t="shared" si="0"/>
+        <v>5426.1907000000001</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="24">
+        <f>C2 *$M4</f>
+        <v>1700.3231999999996</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:L4" si="1">D2 *$M4</f>
+        <v>2483.6335199999999</v>
+      </c>
+      <c r="E4" s="24">
+        <f t="shared" si="1"/>
+        <v>2977.89408</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" si="1"/>
+        <v>3622.248</v>
+      </c>
+      <c r="G4" s="24">
+        <f t="shared" si="1"/>
+        <v>4166.99856</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="1"/>
+        <v>4873.433039999999</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" si="1"/>
+        <v>5046.0803999999998</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" si="1"/>
+        <v>5223.0715199999995</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" si="1"/>
+        <v>5401.714320000001</v>
+      </c>
+      <c r="L4" s="24">
+        <f t="shared" si="1"/>
+        <v>5581.2247200000002</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24">
+        <f>C2 *$M5</f>
+        <v>1747.5543999999995</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" ref="D5:L5" si="2">D2 *$M5</f>
+        <v>2552.6233400000001</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" si="2"/>
+        <v>3060.6133599999998</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="2"/>
+        <v>3722.8660000000004</v>
+      </c>
+      <c r="G5" s="24">
+        <f t="shared" si="2"/>
+        <v>4282.7485200000001</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="2"/>
+        <v>5008.8061799999996</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="2"/>
+        <v>5186.2492999999995</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="2"/>
+        <v>5368.1568399999996</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" si="2"/>
+        <v>5551.7619400000012</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" si="2"/>
+        <v>5736.2587400000002</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="24">
+        <f>C2 *$M6</f>
+        <v>1794.7855999999997</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" ref="D6:L6" si="3">D2 *$M6</f>
+        <v>2621.6131599999999</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="3"/>
+        <v>3143.3326400000001</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="3"/>
+        <v>3823.4840000000004</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" si="3"/>
+        <v>4398.4984800000002</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="3"/>
+        <v>5144.1793199999993</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="3"/>
+        <v>5326.4182000000001</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="3"/>
+        <v>5513.2421599999998</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="3"/>
+        <v>5701.8095600000006</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="3"/>
+        <v>5891.2927600000012</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="24">
+        <f>C2 *$M7</f>
+        <v>1842.0167999999996</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" ref="D7:L7" si="4">D2 *$M7</f>
+        <v>2690.6029800000001</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="4"/>
+        <v>3226.0519199999999</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="4"/>
+        <v>3924.1020000000008</v>
+      </c>
+      <c r="G7" s="24">
+        <f t="shared" si="4"/>
+        <v>4514.2484400000003</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="4"/>
+        <v>5279.5524599999999</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="4"/>
+        <v>5466.5870999999997</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="4"/>
+        <v>5658.3274799999999</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="4"/>
+        <v>5851.8571800000009</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="4"/>
+        <v>6046.3267800000012</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24">
+        <f>C2 *$M8</f>
+        <v>1889.2479999999996</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" ref="D8:L8" si="5">D2 *$M8</f>
+        <v>2759.5928000000004</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="5"/>
+        <v>3308.7712000000001</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="5"/>
+        <v>4024.7200000000007</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="5"/>
+        <v>4629.9984000000004</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="5"/>
+        <v>5414.9255999999996</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="5"/>
+        <v>5606.7560000000003</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="5"/>
+        <v>5803.4128000000001</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="5"/>
+        <v>6001.9048000000012</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="5"/>
+        <v>6201.3608000000013</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24">
+        <f>C2 *$M9</f>
+        <v>1936.4791999999995</v>
+      </c>
+      <c r="D9" s="24">
+        <f t="shared" ref="D9:L9" si="6">D2 *$M9</f>
+        <v>2828.5826199999997</v>
+      </c>
+      <c r="E9" s="24">
+        <f t="shared" si="6"/>
+        <v>3391.4904799999999</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="6"/>
+        <v>4125.3380000000006</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" si="6"/>
+        <v>4745.7483600000005</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="6"/>
+        <v>5550.2987399999993</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="6"/>
+        <v>5746.9248999999991</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="6"/>
+        <v>5948.4981199999993</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="6"/>
+        <v>6151.9524200000005</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="6"/>
+        <v>6356.3948200000004</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="24">
+        <f>C2 *$M10</f>
+        <v>1983.7103999999995</v>
+      </c>
+      <c r="D10" s="24">
+        <f t="shared" ref="D10:L10" si="7">D2 *$M10</f>
+        <v>2897.5724399999999</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" si="7"/>
+        <v>3474.2097599999997</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="7"/>
+        <v>4225.9560000000001</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="7"/>
+        <v>4861.4983200000006</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="7"/>
+        <v>5685.671879999999</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="7"/>
+        <v>5887.0937999999996</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="7"/>
+        <v>6093.5834399999994</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="7"/>
+        <v>6302.0000400000008</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="7"/>
+        <v>6511.4288400000005</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24">
+        <f>C2 *$M11</f>
+        <v>2030.9415999999994</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" ref="D11:L11" si="8">D2 *$M11</f>
+        <v>2966.5622600000002</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="8"/>
+        <v>3556.92904</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="8"/>
+        <v>4326.5740000000005</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="8"/>
+        <v>4977.2482800000007</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="8"/>
+        <v>5821.0450199999996</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="8"/>
+        <v>6027.2626999999993</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="8"/>
+        <v>6238.6687599999996</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="8"/>
+        <v>6452.0476600000011</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="8"/>
+        <v>6666.4628600000005</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24">
+        <f>C2 *$M12</f>
+        <v>2078.1727999999994</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" ref="D12:L12" si="9">D2 *$M12</f>
+        <v>3035.5520799999999</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="9"/>
+        <v>3639.6483199999998</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="9"/>
+        <v>4427.1920000000009</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" si="9"/>
+        <v>5092.9982400000008</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="9"/>
+        <v>5956.4181599999993</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="9"/>
+        <v>6167.4315999999999</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="9"/>
+        <v>6383.7540799999997</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="9"/>
+        <v>6602.0952800000014</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" si="9"/>
+        <v>6821.4968800000006</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="25">
+        <f>C2 *$M13</f>
+        <v>2125.4039999999995</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" ref="D13:L13" si="10">D2 *$M13</f>
+        <v>3104.5419000000002</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="10"/>
+        <v>3722.3676</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="10"/>
+        <v>4527.8100000000004</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="10"/>
+        <v>5208.7482000000009</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="10"/>
+        <v>6091.7912999999999</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="10"/>
+        <v>6307.6004999999996</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="10"/>
+        <v>6528.8393999999998</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" si="10"/>
+        <v>6752.1429000000016</v>
+      </c>
+      <c r="L13" s="25">
+        <f t="shared" si="10"/>
+        <v>6976.5309000000007</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17">
+        <f>C$2-C3</f>
+        <v>3070.0279999999993</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" ref="D16:L16" si="11">D$2-D3</f>
+        <v>4484.3383000000003</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="11"/>
+        <v>5376.7532000000001</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="11"/>
+        <v>6540.170000000001</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="11"/>
+        <v>7523.7474000000011</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="11"/>
+        <v>8799.2540999999983</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="11"/>
+        <v>9110.9785000000011</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="11"/>
+        <v>9430.5457999999999</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="11"/>
+        <v>9753.0953000000009</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="11"/>
+        <v>10077.211300000003</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19">
+        <f t="shared" ref="C17:L27" si="12">C$2-C4</f>
+        <v>3022.7967999999992</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="12"/>
+        <v>4415.3484800000006</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="12"/>
+        <v>5294.0339199999999</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="12"/>
+        <v>6439.5520000000015</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="12"/>
+        <v>7407.997440000001</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="12"/>
+        <v>8663.8809599999986</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="12"/>
+        <v>8970.8096000000005</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="12"/>
+        <v>9285.4604799999997</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="12"/>
+        <v>9603.0476800000015</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="12"/>
+        <v>9922.1772800000017</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19">
+        <f t="shared" si="12"/>
+        <v>2975.5655999999994</v>
+      </c>
+      <c r="D18" s="19">
+        <f t="shared" si="12"/>
+        <v>4346.3586599999999</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="12"/>
+        <v>5211.3146400000005</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="12"/>
+        <v>6338.9340000000011</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="12"/>
+        <v>7292.2474800000009</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="12"/>
+        <v>8528.5078199999989</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="12"/>
+        <v>8830.6406999999999</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="12"/>
+        <v>9140.3751599999996</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="12"/>
+        <v>9453.0000600000021</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="12"/>
+        <v>9767.1432600000007</v>
+      </c>
+      <c r="M18" s="20">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
+        <f t="shared" si="12"/>
+        <v>2928.3343999999993</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="12"/>
+        <v>4277.3688400000001</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="12"/>
+        <v>5128.5953599999993</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="12"/>
+        <v>6238.3160000000007</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="12"/>
+        <v>7176.4975200000008</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="12"/>
+        <v>8393.1346799999992</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="12"/>
+        <v>8690.4717999999993</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="12"/>
+        <v>8995.2898399999995</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="12"/>
+        <v>9302.9524400000009</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="12"/>
+        <v>9612.1092400000016</v>
+      </c>
+      <c r="M19" s="20">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
+        <f t="shared" si="12"/>
+        <v>2881.1031999999996</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="12"/>
+        <v>4208.3790200000003</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="12"/>
+        <v>5045.87608</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="12"/>
+        <v>6137.6980000000003</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="12"/>
+        <v>7060.7475600000007</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="12"/>
+        <v>8257.7615399999995</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="12"/>
+        <v>8550.3028999999988</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="12"/>
+        <v>8850.2045199999993</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="12"/>
+        <v>9152.9048200000016</v>
+      </c>
+      <c r="L20" s="19">
+        <f t="shared" si="12"/>
+        <v>9457.0752200000006</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
+        <f t="shared" si="12"/>
+        <v>2833.8719999999994</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="12"/>
+        <v>4139.3891999999996</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="12"/>
+        <v>4963.1567999999997</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="12"/>
+        <v>6037.08</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="12"/>
+        <v>6944.9976000000006</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="12"/>
+        <v>8122.3883999999989</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="12"/>
+        <v>8410.1339999999982</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="12"/>
+        <v>8705.1191999999992</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="12"/>
+        <v>9002.8572000000022</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="12"/>
+        <v>9302.0411999999997</v>
+      </c>
+      <c r="M21" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19">
+        <f t="shared" si="12"/>
+        <v>2786.6407999999992</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="12"/>
+        <v>4070.3993800000003</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="12"/>
+        <v>4880.4375199999995</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="12"/>
+        <v>5936.4620000000004</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="12"/>
+        <v>6829.2476400000005</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="12"/>
+        <v>7987.0152599999992</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="12"/>
+        <v>8269.9651000000013</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="12"/>
+        <v>8560.033879999999</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="12"/>
+        <v>8852.809580000001</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="12"/>
+        <v>9147.0071800000005</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19">
+        <f t="shared" si="12"/>
+        <v>2739.4095999999995</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="12"/>
+        <v>4001.4095600000001</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="12"/>
+        <v>4797.7182400000002</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="12"/>
+        <v>5835.844000000001</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="12"/>
+        <v>6713.4976800000004</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="12"/>
+        <v>7851.6421199999995</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="12"/>
+        <v>8129.7961999999998</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="12"/>
+        <v>8414.9485600000007</v>
+      </c>
+      <c r="K23" s="19">
+        <f t="shared" si="12"/>
+        <v>8702.7619600000016</v>
+      </c>
+      <c r="L23" s="19">
+        <f t="shared" si="12"/>
+        <v>8991.9731600000014</v>
+      </c>
+      <c r="M23" s="20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19">
+        <f t="shared" si="12"/>
+        <v>2692.1783999999998</v>
+      </c>
+      <c r="D24" s="19">
+        <f t="shared" si="12"/>
+        <v>3932.4197399999998</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="12"/>
+        <v>4714.9989599999999</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="12"/>
+        <v>5735.2260000000006</v>
+      </c>
+      <c r="G24" s="19">
+        <f t="shared" si="12"/>
+        <v>6597.7477200000003</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="12"/>
+        <v>7716.2689799999989</v>
+      </c>
+      <c r="I24" s="19">
+        <f t="shared" si="12"/>
+        <v>7989.6273000000001</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" si="12"/>
+        <v>8269.8632399999988</v>
+      </c>
+      <c r="K24" s="19">
+        <f t="shared" si="12"/>
+        <v>8552.7143400000023</v>
+      </c>
+      <c r="L24" s="19">
+        <f t="shared" si="12"/>
+        <v>8836.9391400000022</v>
+      </c>
+      <c r="M24" s="20">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19">
+        <f t="shared" si="12"/>
+        <v>2644.9471999999996</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="12"/>
+        <v>3863.42992</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="12"/>
+        <v>4632.2796799999996</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="12"/>
+        <v>5634.6080000000002</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="12"/>
+        <v>6481.9977600000002</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="12"/>
+        <v>7580.8958399999992</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="12"/>
+        <v>7849.4583999999995</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="12"/>
+        <v>8124.7779199999995</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" si="12"/>
+        <v>8402.6667200000011</v>
+      </c>
+      <c r="L25" s="19">
+        <f t="shared" si="12"/>
+        <v>8681.9051200000013</v>
+      </c>
+      <c r="M25" s="20">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21">
+        <f t="shared" si="12"/>
+        <v>2597.7159999999994</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="12"/>
+        <v>3794.4400999999998</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="12"/>
+        <v>4549.5604000000003</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="12"/>
+        <v>5533.9900000000007</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="12"/>
+        <v>6366.2478000000001</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="12"/>
+        <v>7445.5226999999986</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="12"/>
+        <v>7709.2894999999999</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="12"/>
+        <v>7979.6925999999994</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="12"/>
+        <v>8252.6190999999999</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="12"/>
+        <v>8526.8711000000003</v>
+      </c>
+      <c r="M26" s="22">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <f>'Free Cash Flow'!C36</f>
+        <v>4000</v>
+      </c>
+      <c r="D28">
+        <f>'Free Cash Flow'!D36</f>
+        <v>4000</v>
+      </c>
+      <c r="E28">
+        <f>'Free Cash Flow'!E36</f>
+        <v>4000</v>
+      </c>
+      <c r="F28">
+        <f>'Free Cash Flow'!F36</f>
+        <v>4000</v>
+      </c>
+      <c r="G28">
+        <f>'Free Cash Flow'!G36</f>
+        <v>4000</v>
+      </c>
+      <c r="H28">
+        <f>'Free Cash Flow'!H36</f>
+        <v>4000</v>
+      </c>
+      <c r="I28">
+        <f>'Free Cash Flow'!I36</f>
+        <v>4000</v>
+      </c>
+      <c r="J28">
+        <f>'Free Cash Flow'!J36</f>
+        <v>4000</v>
+      </c>
+      <c r="K28">
+        <f>'Free Cash Flow'!K36</f>
+        <v>4000</v>
+      </c>
+      <c r="L28">
+        <f>'Free Cash Flow'!L36</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="16">
+        <f>'Free Cash Flow'!C38</f>
+        <v>-925.97222222222263</v>
+      </c>
+      <c r="D29" s="16">
+        <f>'Free Cash Flow'!D38</f>
+        <v>1236.6867222222227</v>
+      </c>
+      <c r="E29" s="16">
+        <f>'Free Cash Flow'!E38</f>
+        <v>1289.6492777777785</v>
+      </c>
+      <c r="F29" s="16">
+        <f>'Free Cash Flow'!F38</f>
+        <v>1332.6413333333348</v>
+      </c>
+      <c r="G29" s="16">
+        <f>'Free Cash Flow'!G38</f>
+        <v>1383.4524444444432</v>
+      </c>
+      <c r="H29" s="16">
+        <f>'Free Cash Flow'!H38</f>
+        <v>1428.6771666666646</v>
+      </c>
+      <c r="I29" s="16">
+        <f>'Free Cash Flow'!I38</f>
+        <v>370.06261111111598</v>
+      </c>
+      <c r="J29" s="16">
+        <f>'Free Cash Flow'!J38</f>
+        <v>377.41794444444167</v>
+      </c>
+      <c r="K29" s="16">
+        <f>'Free Cash Flow'!K38</f>
+        <v>384.98483333333206</v>
+      </c>
+      <c r="L29" s="16">
+        <f>'Free Cash Flow'!L38</f>
+        <v>392.71322222222079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="16">
+        <f>'Free Cash Flow'!B39</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31">
+        <f>'Free Cash Flow'!L40</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="17">
+        <f>-$B$30</f>
+        <v>-45000</v>
+      </c>
+      <c r="C32" s="17">
+        <f>C16 +C$28 - C$29 - C$30</f>
+        <v>7996.000222222222</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" ref="D32:L32" si="13">D16 +D$28 - D$29 - D$30</f>
+        <v>7247.6515777777768</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="13"/>
+        <v>8087.1039222222207</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="shared" si="13"/>
+        <v>9207.528666666667</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="13"/>
+        <v>10140.294955555557</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="13"/>
+        <v>11370.576933333334</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="13"/>
+        <v>12740.915888888885</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="13"/>
+        <v>13053.127855555558</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" si="13"/>
+        <v>13368.110466666669</v>
+      </c>
+      <c r="L32" s="17">
+        <f>L16 +L$28 - L$29 - L$30 +$L$31</f>
+        <v>33684.498077777782</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="19">
+        <f t="shared" ref="B33:B42" si="14">-$B$30</f>
+        <v>-45000</v>
+      </c>
+      <c r="C33" s="19">
+        <f t="shared" ref="C33:L42" si="15">C17 +C$28 - C$29 - C$30</f>
+        <v>7948.7690222222218</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" si="15"/>
+        <v>7178.6617577777779</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="15"/>
+        <v>8004.3846422222214</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="15"/>
+        <v>9106.9106666666667</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="15"/>
+        <v>10024.544995555558</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="15"/>
+        <v>11235.203793333334</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="15"/>
+        <v>12600.746988888885</v>
+      </c>
+      <c r="J33" s="19">
+        <f t="shared" si="15"/>
+        <v>12908.042535555558</v>
+      </c>
+      <c r="K33" s="19">
+        <f t="shared" si="15"/>
+        <v>13218.062846666669</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" ref="L33:L42" si="16">L17 +L$28 - L$29 - L$30 +$L$31</f>
+        <v>33529.464057777783</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C34" s="19">
+        <f t="shared" si="15"/>
+        <v>7901.5378222222225</v>
+      </c>
+      <c r="D34" s="19">
+        <f t="shared" si="15"/>
+        <v>7109.6719377777772</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="15"/>
+        <v>7921.665362222222</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="15"/>
+        <v>9006.2926666666663</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="15"/>
+        <v>9908.7950355555586</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="15"/>
+        <v>11099.830653333334</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="15"/>
+        <v>12460.578088888884</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="15"/>
+        <v>12762.957215555558</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="15"/>
+        <v>13068.01522666667</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="16"/>
+        <v>33374.430037777784</v>
+      </c>
+      <c r="M34" s="20">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C35" s="19">
+        <f t="shared" si="15"/>
+        <v>7854.3066222222224</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" si="15"/>
+        <v>7040.6821177777765</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="15"/>
+        <v>7838.9460822222209</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="15"/>
+        <v>8905.6746666666659</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="15"/>
+        <v>9793.0450755555576</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="15"/>
+        <v>10964.457513333335</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="15"/>
+        <v>12320.409188888883</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" si="15"/>
+        <v>12617.871895555558</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="shared" si="15"/>
+        <v>12917.967606666669</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" si="16"/>
+        <v>33219.396017777777</v>
+      </c>
+      <c r="M35" s="20">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C36" s="19">
+        <f t="shared" si="15"/>
+        <v>7807.0754222222222</v>
+      </c>
+      <c r="D36" s="19">
+        <f t="shared" si="15"/>
+        <v>6971.6922977777776</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="15"/>
+        <v>7756.2268022222215</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="15"/>
+        <v>8805.0566666666655</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="15"/>
+        <v>9677.2951155555565</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="15"/>
+        <v>10829.084373333335</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" si="15"/>
+        <v>12180.240288888883</v>
+      </c>
+      <c r="J36" s="19">
+        <f t="shared" si="15"/>
+        <v>12472.786575555558</v>
+      </c>
+      <c r="K36" s="19">
+        <f t="shared" si="15"/>
+        <v>12767.91998666667</v>
+      </c>
+      <c r="L36" s="19">
+        <f t="shared" si="16"/>
+        <v>33064.361997777778</v>
+      </c>
+      <c r="M36" s="20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C37" s="19">
+        <f t="shared" si="15"/>
+        <v>7759.844222222222</v>
+      </c>
+      <c r="D37" s="19">
+        <f t="shared" si="15"/>
+        <v>6902.7024777777769</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="15"/>
+        <v>7673.5075222222222</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="15"/>
+        <v>8704.4386666666651</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="15"/>
+        <v>9561.5451555555574</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="15"/>
+        <v>10693.711233333335</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="15"/>
+        <v>12040.071388888882</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="15"/>
+        <v>12327.701255555558</v>
+      </c>
+      <c r="K37" s="19">
+        <f t="shared" si="15"/>
+        <v>12617.87236666667</v>
+      </c>
+      <c r="L37" s="19">
+        <f t="shared" si="16"/>
+        <v>32909.327977777779</v>
+      </c>
+      <c r="M37" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C38" s="19">
+        <f>C22 +C$28 - C$29 - C$30</f>
+        <v>7712.6130222222218</v>
+      </c>
+      <c r="D38" s="19">
+        <f t="shared" ref="D38:L38" si="17">D22 +D$28 - D$29 - D$30</f>
+        <v>6833.7126577777781</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" si="17"/>
+        <v>7590.788242222221</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="17"/>
+        <v>8603.8206666666647</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="17"/>
+        <v>9445.7951955555582</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="17"/>
+        <v>10558.338093333336</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="17"/>
+        <v>11899.902488888885</v>
+      </c>
+      <c r="J38" s="19">
+        <f t="shared" si="17"/>
+        <v>12182.615935555557</v>
+      </c>
+      <c r="K38" s="19">
+        <f t="shared" si="17"/>
+        <v>12467.824746666669</v>
+      </c>
+      <c r="L38" s="19">
+        <f t="shared" si="16"/>
+        <v>32754.29395777778</v>
+      </c>
+      <c r="M38" s="20">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C39" s="19">
+        <f t="shared" si="15"/>
+        <v>7665.3818222222217</v>
+      </c>
+      <c r="D39" s="19">
+        <f t="shared" si="15"/>
+        <v>6764.7228377777774</v>
+      </c>
+      <c r="E39" s="19">
+        <f t="shared" si="15"/>
+        <v>7508.0689622222217</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="15"/>
+        <v>8503.2026666666661</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="15"/>
+        <v>9330.0452355555572</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="15"/>
+        <v>10422.964953333336</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="15"/>
+        <v>11759.733588888885</v>
+      </c>
+      <c r="J39" s="19">
+        <f t="shared" si="15"/>
+        <v>12037.530615555559</v>
+      </c>
+      <c r="K39" s="19">
+        <f t="shared" si="15"/>
+        <v>12317.77712666667</v>
+      </c>
+      <c r="L39" s="19">
+        <f t="shared" si="16"/>
+        <v>32599.259937777781</v>
+      </c>
+      <c r="M39" s="20">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C40" s="19">
+        <f t="shared" si="15"/>
+        <v>7618.1506222222224</v>
+      </c>
+      <c r="D40" s="19">
+        <f t="shared" si="15"/>
+        <v>6695.7330177777767</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="15"/>
+        <v>7425.3496822222223</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="15"/>
+        <v>8402.5846666666657</v>
+      </c>
+      <c r="G40" s="19">
+        <f t="shared" si="15"/>
+        <v>9214.2952755555561</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="15"/>
+        <v>10287.591813333334</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="15"/>
+        <v>11619.564688888884</v>
+      </c>
+      <c r="J40" s="19">
+        <f t="shared" si="15"/>
+        <v>11892.445295555557</v>
+      </c>
+      <c r="K40" s="19">
+        <f t="shared" si="15"/>
+        <v>12167.72950666667</v>
+      </c>
+      <c r="L40" s="19">
+        <f t="shared" si="16"/>
+        <v>32444.225917777781</v>
+      </c>
+      <c r="M40" s="20">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="19">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C41" s="19">
+        <f t="shared" si="15"/>
+        <v>7570.9194222222222</v>
+      </c>
+      <c r="D41" s="19">
+        <f t="shared" si="15"/>
+        <v>6626.7431977777778</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" si="15"/>
+        <v>7342.6304022222212</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="15"/>
+        <v>8301.9666666666653</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="15"/>
+        <v>9098.545315555557</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="15"/>
+        <v>10152.218673333335</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="15"/>
+        <v>11479.395788888884</v>
+      </c>
+      <c r="J41" s="19">
+        <f t="shared" si="15"/>
+        <v>11747.359975555559</v>
+      </c>
+      <c r="K41" s="19">
+        <f t="shared" si="15"/>
+        <v>12017.681886666669</v>
+      </c>
+      <c r="L41" s="19">
+        <f t="shared" si="16"/>
+        <v>32289.191897777782</v>
+      </c>
+      <c r="M41" s="20">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="21">
+        <f t="shared" si="14"/>
+        <v>-45000</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" si="15"/>
+        <v>7523.6882222222221</v>
+      </c>
+      <c r="D42" s="21">
+        <f t="shared" si="15"/>
+        <v>6557.7533777777771</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" si="15"/>
+        <v>7259.9111222222218</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="15"/>
+        <v>8201.3486666666668</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" si="15"/>
+        <v>8982.7953555555578</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" si="15"/>
+        <v>10016.845533333333</v>
+      </c>
+      <c r="I42" s="21">
+        <f t="shared" si="15"/>
+        <v>11339.226888888883</v>
+      </c>
+      <c r="J42" s="21">
+        <f t="shared" si="15"/>
+        <v>11602.274655555557</v>
+      </c>
+      <c r="K42" s="21">
+        <f t="shared" si="15"/>
+        <v>11867.634266666668</v>
+      </c>
+      <c r="L42" s="21">
+        <f t="shared" si="16"/>
+        <v>32134.15787777778</v>
+      </c>
+      <c r="M42" s="22">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="17">
+        <v>0</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4</v>
+      </c>
+      <c r="G44" s="17">
+        <v>5</v>
+      </c>
+      <c r="H44" s="17">
+        <v>6</v>
+      </c>
+      <c r="I44" s="17">
+        <v>7</v>
+      </c>
+      <c r="J44" s="17">
+        <v>8</v>
+      </c>
+      <c r="K44" s="17">
+        <v>9</v>
+      </c>
+      <c r="L44" s="17">
+        <v>10</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="19">
+        <f>B32 / (1 + $N45)^B$44</f>
+        <v>-45000</v>
+      </c>
+      <c r="C45" s="19">
+        <f t="shared" ref="C45:L45" si="18">C32 / (1 + $N45)^C$44</f>
+        <v>7311.6649419778087</v>
+      </c>
+      <c r="D45" s="19">
+        <f t="shared" si="18"/>
+        <v>6060.1625755109908</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="18"/>
+        <v>6183.3449647470725</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="18"/>
+        <v>6437.4966479952091</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="18"/>
+        <v>6482.8803771664816</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" si="18"/>
+        <v>6647.2713158989764</v>
+      </c>
+      <c r="I45" s="19">
+        <f t="shared" si="18"/>
+        <v>6810.9083625450712</v>
+      </c>
+      <c r="J45" s="19">
+        <f t="shared" si="18"/>
+        <v>6380.6138826251799</v>
+      </c>
+      <c r="K45" s="19">
+        <f t="shared" si="18"/>
+        <v>5975.3229437480131</v>
+      </c>
+      <c r="L45" s="19">
+        <f t="shared" si="18"/>
+        <v>13767.811810763355</v>
+      </c>
+      <c r="M45" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="N45" s="34">
+        <v>9.3594999999999998E-2</v>
+      </c>
+      <c r="O45" s="35">
+        <f>SUM(B45:L45)</f>
+        <v>27057.477822978166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="19">
+        <f t="shared" ref="B46:L55" si="19">B33 / (1 + $N46)^B$44</f>
+        <v>-45000</v>
+      </c>
+      <c r="C46" s="19">
+        <f t="shared" si="19"/>
+        <v>7269.0277036029065</v>
+      </c>
+      <c r="D46" s="19">
+        <f t="shared" si="19"/>
+        <v>6003.3876063248154</v>
+      </c>
+      <c r="E46" s="19">
+        <f t="shared" si="19"/>
+        <v>6121.4920558317481</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="19"/>
+        <v>6369.0823376818507</v>
+      </c>
+      <c r="G46" s="19">
+        <f t="shared" si="19"/>
+        <v>6411.3118714730444</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="19"/>
+        <v>6571.1235795758221</v>
+      </c>
+      <c r="I46" s="19">
+        <f t="shared" si="19"/>
+        <v>6739.5580526640779</v>
+      </c>
+      <c r="J46" s="19">
+        <f t="shared" si="19"/>
+        <v>6313.5258316308309</v>
+      </c>
+      <c r="K46" s="19">
+        <f t="shared" si="19"/>
+        <v>5912.291426903369</v>
+      </c>
+      <c r="L46" s="19">
+        <f t="shared" si="19"/>
+        <v>13714.850533178327</v>
+      </c>
+      <c r="M46" s="30">
+        <v>0.36</v>
+      </c>
+      <c r="N46" s="34">
+        <v>9.3511999999999998E-2</v>
+      </c>
+      <c r="O46" s="35">
+        <f t="shared" ref="O46:O55" si="20">SUM(B46:L46)</f>
+        <v>26425.650998866793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C47" s="19">
+        <f t="shared" si="19"/>
+        <v>7226.3839922136895</v>
+      </c>
+      <c r="D47" s="19">
+        <f t="shared" si="19"/>
+        <v>5946.5953279510932</v>
+      </c>
+      <c r="E47" s="19">
+        <f t="shared" si="19"/>
+        <v>6059.6107602095253</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="19"/>
+        <v>6300.6260319106814</v>
+      </c>
+      <c r="G47" s="19">
+        <f t="shared" si="19"/>
+        <v>6339.6882840553753</v>
+      </c>
+      <c r="H47" s="19">
+        <f t="shared" si="19"/>
+        <v>6494.9053180261908</v>
+      </c>
+      <c r="I47" s="19">
+        <f t="shared" si="19"/>
+        <v>6668.1302517916265</v>
+      </c>
+      <c r="J47" s="19">
+        <f t="shared" si="19"/>
+        <v>6246.3542188859792</v>
+      </c>
+      <c r="K47" s="19">
+        <f t="shared" si="19"/>
+        <v>5849.1712809045266</v>
+      </c>
+      <c r="L47" s="19">
+        <f t="shared" si="19"/>
+        <v>13661.801680360302</v>
+      </c>
+      <c r="M47" s="30">
+        <v>0.37</v>
+      </c>
+      <c r="N47" s="34">
+        <v>9.3428999999999998E-2</v>
+      </c>
+      <c r="O47" s="35">
+        <f t="shared" si="20"/>
+        <v>25793.26714630899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C48" s="19">
+        <f t="shared" si="19"/>
+        <v>7183.7338063359839</v>
+      </c>
+      <c r="D48" s="19">
+        <f t="shared" si="19"/>
+        <v>5889.7857344686254</v>
+      </c>
+      <c r="E48" s="19">
+        <f t="shared" si="19"/>
+        <v>5997.7010649173108</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="19"/>
+        <v>6232.1277066842358</v>
+      </c>
+      <c r="G48" s="19">
+        <f t="shared" si="19"/>
+        <v>6268.0095771044116</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="19"/>
+        <v>6418.6164747187004</v>
+      </c>
+      <c r="I48" s="19">
+        <f t="shared" si="19"/>
+        <v>6596.6248888192458</v>
+      </c>
+      <c r="J48" s="19">
+        <f t="shared" si="19"/>
+        <v>6179.0989580269725</v>
+      </c>
+      <c r="K48" s="19">
+        <f t="shared" si="19"/>
+        <v>5785.9624038565453</v>
+      </c>
+      <c r="L48" s="19">
+        <f t="shared" si="19"/>
+        <v>13608.665139593242</v>
+      </c>
+      <c r="M48" s="30">
+        <v>0.38</v>
+      </c>
+      <c r="N48" s="34">
+        <v>9.3345999999999998E-2</v>
+      </c>
+      <c r="O48" s="35">
+        <f t="shared" si="20"/>
+        <v>25160.325754525278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C49" s="19">
+        <f t="shared" si="19"/>
+        <v>7141.0771444951688</v>
+      </c>
+      <c r="D49" s="19">
+        <f t="shared" si="19"/>
+        <v>5832.9588199538084</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" si="19"/>
+        <v>5935.7629569854425</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="19"/>
+        <v>6163.5873379904351</v>
+      </c>
+      <c r="G49" s="19">
+        <f t="shared" si="19"/>
+        <v>6196.2757127842215</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="19"/>
+        <v>6342.2569930760365</v>
+      </c>
+      <c r="I49" s="19">
+        <f t="shared" si="19"/>
+        <v>6525.0418925734193</v>
+      </c>
+      <c r="J49" s="19">
+        <f t="shared" si="19"/>
+        <v>6111.7599626023357</v>
+      </c>
+      <c r="K49" s="19">
+        <f t="shared" si="19"/>
+        <v>5722.6646937504393</v>
+      </c>
+      <c r="L49" s="19">
+        <f t="shared" si="19"/>
+        <v>13555.440798022273</v>
+      </c>
+      <c r="M49" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="N49" s="34">
+        <v>9.3262999999999999E-2</v>
+      </c>
+      <c r="O49" s="35">
+        <f t="shared" si="20"/>
+        <v>24526.826312233585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C50" s="19">
+        <f t="shared" si="19"/>
+        <v>7098.4140052161783</v>
+      </c>
+      <c r="D50" s="19">
+        <f t="shared" si="19"/>
+        <v>5776.114578480644</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" si="19"/>
+        <v>5873.7964234376914</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="19"/>
+        <v>6095.0049018026084</v>
+      </c>
+      <c r="G50" s="19">
+        <f t="shared" si="19"/>
+        <v>6124.4866532320248</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="19"/>
+        <v>6265.8268164749734</v>
+      </c>
+      <c r="I50" s="19">
+        <f t="shared" si="19"/>
+        <v>6453.3811918155852</v>
+      </c>
+      <c r="J50" s="19">
+        <f t="shared" si="19"/>
+        <v>6044.3371460727376</v>
+      </c>
+      <c r="K50" s="19">
+        <f t="shared" si="19"/>
+        <v>5659.2780484631176</v>
+      </c>
+      <c r="L50" s="19">
+        <f t="shared" si="19"/>
+        <v>13502.128542653682</v>
+      </c>
+      <c r="M50" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="N50" s="34">
+        <v>9.3179999999999999E-2</v>
+      </c>
+      <c r="O50" s="35">
+        <f t="shared" si="20"/>
+        <v>23892.768307649247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C51" s="19">
+        <f t="shared" si="19"/>
+        <v>7055.7443870234956</v>
+      </c>
+      <c r="D51" s="19">
+        <f t="shared" si="19"/>
+        <v>5719.253004120731</v>
+      </c>
+      <c r="E51" s="19">
+        <f t="shared" si="19"/>
+        <v>5811.8014512912405</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="19"/>
+        <v>6026.3803740794483</v>
+      </c>
+      <c r="G51" s="19">
+        <f t="shared" si="19"/>
+        <v>6052.6423605581194</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="19"/>
+        <v>6189.3258882462624</v>
+      </c>
+      <c r="I51" s="19">
+        <f t="shared" si="19"/>
+        <v>6381.642715242001</v>
+      </c>
+      <c r="J51" s="19">
+        <f t="shared" si="19"/>
+        <v>5976.8304218108315</v>
+      </c>
+      <c r="K51" s="19">
+        <f t="shared" si="19"/>
+        <v>5595.8023657571812</v>
+      </c>
+      <c r="L51" s="19">
+        <f t="shared" si="19"/>
+        <v>13448.728260354537</v>
+      </c>
+      <c r="M51" s="30">
+        <v>0.41</v>
+      </c>
+      <c r="N51" s="34">
+        <v>9.3096999999999999E-2</v>
+      </c>
+      <c r="O51" s="35">
+        <f t="shared" si="20"/>
+        <v>23258.151228483846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C52" s="19">
+        <f t="shared" si="19"/>
+        <v>7013.0682884411563</v>
+      </c>
+      <c r="D52" s="19">
+        <f t="shared" si="19"/>
+        <v>5662.374090943259</v>
+      </c>
+      <c r="E52" s="19">
+        <f t="shared" si="19"/>
+        <v>5749.7780275566975</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="19"/>
+        <v>5957.7137307650164</v>
+      </c>
+      <c r="G52" s="19">
+        <f t="shared" si="19"/>
+        <v>5980.7427968458933</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="19"/>
+        <v>6112.7541516746269</v>
+      </c>
+      <c r="I52" s="19">
+        <f t="shared" si="19"/>
+        <v>6309.8263914837089</v>
+      </c>
+      <c r="J52" s="19">
+        <f t="shared" si="19"/>
+        <v>5909.2397031011951</v>
+      </c>
+      <c r="K52" s="19">
+        <f t="shared" si="19"/>
+        <v>5532.2375432808203</v>
+      </c>
+      <c r="L52" s="19">
+        <f t="shared" si="19"/>
+        <v>13395.239837852623</v>
+      </c>
+      <c r="M52" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="N52" s="34">
+        <v>9.3013999999999999E-2</v>
+      </c>
+      <c r="O52" s="35">
+        <f t="shared" si="20"/>
+        <v>22622.974561945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
+      <c r="B53" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C53" s="19">
+        <f t="shared" si="19"/>
+        <v>6970.3857079927475</v>
+      </c>
+      <c r="D53" s="19">
+        <f t="shared" si="19"/>
+        <v>5605.4778330150193</v>
+      </c>
+      <c r="E53" s="19">
+        <f t="shared" si="19"/>
+        <v>5687.7261392380815</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="19"/>
+        <v>5889.0049477887333</v>
+      </c>
+      <c r="G53" s="19">
+        <f t="shared" si="19"/>
+        <v>5908.7879241517976</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="19"/>
+        <v>6036.1115499987272</v>
+      </c>
+      <c r="I53" s="19">
+        <f t="shared" si="19"/>
+        <v>6237.932149106492</v>
+      </c>
+      <c r="J53" s="19">
+        <f t="shared" si="19"/>
+        <v>5841.5649031402363</v>
+      </c>
+      <c r="K53" s="19">
+        <f t="shared" si="19"/>
+        <v>5468.5834785676943</v>
+      </c>
+      <c r="L53" s="19">
+        <f t="shared" si="19"/>
+        <v>13341.663161736267</v>
+      </c>
+      <c r="M53" s="30">
+        <v>0.43</v>
+      </c>
+      <c r="N53" s="34">
+        <v>9.2931E-2</v>
+      </c>
+      <c r="O53" s="35">
+        <f t="shared" si="20"/>
+        <v>21987.237794735796</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
+      <c r="B54" s="19">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C54" s="19">
+        <f t="shared" si="19"/>
+        <v>6927.6966442014091</v>
+      </c>
+      <c r="D54" s="19">
+        <f t="shared" si="19"/>
+        <v>5548.5642244004057</v>
+      </c>
+      <c r="E54" s="19">
+        <f t="shared" si="19"/>
+        <v>5625.6457733328316</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" si="19"/>
+        <v>5820.2540010653811</v>
+      </c>
+      <c r="G54" s="19">
+        <f t="shared" si="19"/>
+        <v>5836.7777045053399</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="19"/>
+        <v>5959.3980264111306</v>
+      </c>
+      <c r="I54" s="19">
+        <f t="shared" si="19"/>
+        <v>6165.9599166108092</v>
+      </c>
+      <c r="J54" s="19">
+        <f t="shared" si="19"/>
+        <v>5773.8059350361245</v>
+      </c>
+      <c r="K54" s="19">
+        <f t="shared" si="19"/>
+        <v>5404.8400690368062</v>
+      </c>
+      <c r="L54" s="19">
+        <f t="shared" si="19"/>
+        <v>13287.99811845421</v>
+      </c>
+      <c r="M54" s="30">
+        <v>0.44</v>
+      </c>
+      <c r="N54" s="34">
+        <v>9.2848E-2</v>
+      </c>
+      <c r="O54" s="35">
+        <f t="shared" si="20"/>
+        <v>21350.940413054446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="36"/>
+      <c r="B55" s="21">
+        <f t="shared" si="19"/>
+        <v>-45000</v>
+      </c>
+      <c r="C55" s="21">
+        <f t="shared" si="19"/>
+        <v>6885.0010955898315</v>
+      </c>
+      <c r="D55" s="21">
+        <f t="shared" si="19"/>
+        <v>5491.63325916139</v>
+      </c>
+      <c r="E55" s="21">
+        <f t="shared" si="19"/>
+        <v>5563.5369168317875</v>
+      </c>
+      <c r="F55" s="21">
+        <f t="shared" si="19"/>
+        <v>5751.4608664950665</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="19"/>
+        <v>5764.7120999090293</v>
+      </c>
+      <c r="H55" s="21">
+        <f t="shared" si="19"/>
+        <v>5882.6135240582289</v>
+      </c>
+      <c r="I55" s="21">
+        <f t="shared" si="19"/>
+        <v>6093.9096224316991</v>
+      </c>
+      <c r="J55" s="21">
+        <f t="shared" si="19"/>
+        <v>5705.9627118086401</v>
+      </c>
+      <c r="K55" s="21">
+        <f t="shared" si="19"/>
+        <v>5341.0072119923334</v>
+      </c>
+      <c r="L55" s="21">
+        <f t="shared" si="19"/>
+        <v>13234.244594315285</v>
+      </c>
+      <c r="M55" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="N55" s="37">
+        <v>9.2765E-2</v>
+      </c>
+      <c r="O55" s="38">
+        <f t="shared" si="20"/>
+        <v>20714.081902593294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A45:A55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E2" s="8">
+        <v>2008</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <f>'Free Cash Flow'!B41</f>
+        <v>-45000</v>
+      </c>
+      <c r="F3">
+        <f>'Free Cash Flow'!C41</f>
+        <v>7759.844222222222</v>
+      </c>
+      <c r="G3">
+        <f>'Free Cash Flow'!D41</f>
+        <v>6902.7024777777769</v>
+      </c>
+      <c r="H3">
+        <f>'Free Cash Flow'!E41</f>
+        <v>7673.5075222222222</v>
+      </c>
+      <c r="I3">
+        <f>'Free Cash Flow'!F41</f>
+        <v>8704.4386666666651</v>
+      </c>
+      <c r="J3">
+        <f>'Free Cash Flow'!G41</f>
+        <v>9561.5451555555574</v>
+      </c>
+      <c r="K3">
+        <f>'Free Cash Flow'!H41</f>
+        <v>10693.711233333335</v>
+      </c>
+      <c r="L3">
+        <f>'Free Cash Flow'!I41</f>
+        <v>12040.071388888882</v>
+      </c>
+      <c r="M3">
+        <f>'Free Cash Flow'!J41</f>
+        <v>12327.701255555558</v>
+      </c>
+      <c r="N3">
+        <f>'Free Cash Flow'!K41</f>
+        <v>12617.87236666667</v>
+      </c>
+      <c r="O3">
+        <f>'Free Cash Flow'!L41</f>
+        <v>32909.327977777779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <f>SUM(E5:O5)</f>
+        <v>22668.477216138952</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <f>E$3 / (1 + $B$5)^E$4</f>
+        <v>-45000</v>
+      </c>
+      <c r="F5">
+        <f>F3 / (1 + $B$5)^F4</f>
+        <v>7076.9213152961438</v>
+      </c>
+      <c r="G5">
+        <f>G3 / (1 + $B$5)^G4</f>
+        <v>5741.1895102771987</v>
+      </c>
+      <c r="H5">
+        <f>H3 / (1 + $B$5)^H4</f>
+        <v>5820.6034869923915</v>
+      </c>
+      <c r="I5">
+        <f>I3 / (1 + $B$5)^I4</f>
+        <v>6021.5212794545569</v>
+      </c>
+      <c r="J5">
+        <f>J3 / (1 + $B$5)^J4</f>
+        <v>6032.3273418070567</v>
+      </c>
+      <c r="K5">
+        <f>K3 / (1 + $B$5)^K4</f>
+        <v>6152.8543753997701</v>
+      </c>
+      <c r="L5">
+        <f>L3 / (1 + $B$5)^L4</f>
+        <v>6317.8398070071044</v>
+      </c>
+      <c r="M5">
+        <f>M3 / (1 + $B$5)^M4</f>
+        <v>5899.4702203327506</v>
+      </c>
+      <c r="N5">
+        <f>N3 / (1 + $B$5)^N4</f>
+        <v>5506.9154161886581</v>
+      </c>
+      <c r="O5">
+        <f>O3 / (1 + $B$5)^O4</f>
+        <v>13098.834463383315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="B6" s="14">
+        <v>9.5729999999999996E-2</v>
+      </c>
+      <c r="C6">
+        <f>SUM(E6:O6)</f>
+        <v>22949.617804112208</v>
+      </c>
+      <c r="E6">
+        <f>E$3 / (1 + $B$6)^E$4</f>
+        <v>-45000</v>
+      </c>
+      <c r="F6">
+        <f>F$3 / (1 + $B$6)^F$4</f>
+        <v>7081.8944650801031</v>
+      </c>
+      <c r="G6">
+        <f>G$3 / (1 + $B$6)^G$4</f>
+        <v>5749.2613330858039</v>
+      </c>
+      <c r="H6">
+        <f>H$3 / (1 + $B$6)^H$4</f>
+        <v>5832.8830128443569</v>
+      </c>
+      <c r="I6">
+        <f>I$3 / (1 + $B$6)^I$4</f>
+        <v>6038.4650924270463</v>
+      </c>
+      <c r="J6">
+        <f>J$3 / (1 + $B$6)^J$4</f>
+        <v>6053.5525744486085</v>
+      </c>
+      <c r="K6">
+        <f>K$3 / (1 + $B$6)^K$4</f>
+        <v>6178.8426879543422</v>
+      </c>
+      <c r="L6">
+        <f>L$3 / (1 + $B$6)^L$4</f>
+        <v>6348.9834564520506</v>
+      </c>
+      <c r="M6">
+        <f>M$3 / (1 + $B$6)^M$4</f>
+        <v>5932.7176846333632</v>
+      </c>
+      <c r="N6">
+        <f>N$3 / (1 + $B$6)^N$4</f>
+        <v>5541.8422435219318</v>
+      </c>
+      <c r="O6">
+        <f>O$3 / (1 + $B$6)^O$4</f>
+        <v>13191.175253664602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>9.4920000000000004E-2</v>
+      </c>
+      <c r="C7">
+        <f>SUM(E7:O7)</f>
+        <v>23247.182388888468</v>
+      </c>
+      <c r="E7">
+        <f>E$3 / (1 + $B$7)^E$4</f>
+        <v>-45000</v>
+      </c>
+      <c r="F7">
+        <f>F$3 / (1 + $B$7)^F$4</f>
+        <v>7087.1335095004397</v>
+      </c>
+      <c r="G7">
+        <f>G$3 / (1 + $B$7)^G$4</f>
+        <v>5757.7708574735907</v>
+      </c>
+      <c r="H7">
+        <f>H$3 / (1 + $B$7)^H$4</f>
+        <v>5845.8377436739393</v>
+      </c>
+      <c r="I7">
+        <f>I$3 / (1 + $B$7)^I$4</f>
+        <v>6056.3534750398476</v>
+      </c>
+      <c r="J7">
+        <f>J$3 / (1 + $B$7)^J$4</f>
+        <v>6075.9772164149399</v>
+      </c>
+      <c r="K7">
+        <f>K$3 / (1 + $B$7)^K$4</f>
+        <v>6206.3193691171264</v>
+      </c>
+      <c r="L7">
+        <f>L$3 / (1 + $B$7)^L$4</f>
+        <v>6381.9344740791603</v>
+      </c>
+      <c r="M7">
+        <f>M$3 / (1 + $B$7)^M$4</f>
+        <v>5967.9199810608498</v>
+      </c>
+      <c r="N7">
+        <f>N$3 / (1 + $B$7)^N$4</f>
+        <v>5578.8493171824621</v>
+      </c>
+      <c r="O7">
+        <f>O$3 / (1 + $B$7)^O$4</f>
+        <v>13289.086445346114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="B8" s="14">
+        <v>9.4069999999999987E-2</v>
+      </c>
+      <c r="C8">
+        <f>SUM(E8:O8)</f>
+        <v>23561.462579002018</v>
+      </c>
+      <c r="E8">
+        <f>E$3 / (1 + $B$8)^E$4</f>
+        <v>-45000</v>
+      </c>
+      <c r="F8">
+        <f>F$3 / (1 + $B$8)^F$4</f>
+        <v>7092.6396137561787</v>
+      </c>
+      <c r="G8">
+        <f>G$3 / (1 + $B$8)^G$4</f>
+        <v>5766.7209363206312</v>
+      </c>
+      <c r="H8">
+        <f>H$3 / (1 + $B$8)^H$4</f>
+        <v>5859.4734988243517</v>
+      </c>
+      <c r="I8">
+        <f>I$3 / (1 + $B$8)^I$4</f>
+        <v>6075.1965208689007</v>
+      </c>
+      <c r="J8">
+        <f>J$3 / (1 + $B$8)^J$4</f>
+        <v>6099.6165254037714</v>
+      </c>
+      <c r="K8">
+        <f>K$3 / (1 + $B$8)^K$4</f>
+        <v>6235.3063354682827</v>
+      </c>
+      <c r="L8">
+        <f>L$3 / (1 + $B$8)^L$4</f>
+        <v>6416.723042554363</v>
+      </c>
+      <c r="M8">
+        <f>M$3 / (1 + $B$8)^M$4</f>
+        <v>6005.1135590460581</v>
+      </c>
+      <c r="N8">
+        <f>N$3 / (1 + $B$8)^N$4</f>
+        <v>5617.9794161788423</v>
+      </c>
+      <c r="O8">
+        <f>O$3 / (1 + $B$8)^O$4</f>
+        <v>13392.693130580636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="14">
+        <v>9.3179999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <f>SUM(E9:O9)</f>
+        <v>23892.768307649247</v>
+      </c>
+      <c r="E9">
+        <f>E$3 / (1 + $B$9)^E$4</f>
+        <v>-45000</v>
+      </c>
+      <c r="F9">
+        <f>F$3 / (1 + $B$9)^F$4</f>
+        <v>7098.4140052161783</v>
+      </c>
+      <c r="G9">
+        <f>G$3 / (1 + $B$9)^G$4</f>
+        <v>5776.114578480644</v>
+      </c>
+      <c r="H9">
+        <f>H$3 / (1 + $B$9)^H$4</f>
+        <v>5873.7964234376914</v>
+      </c>
+      <c r="I9">
+        <f>I$3 / (1 + $B$9)^I$4</f>
+        <v>6095.0049018026084</v>
+      </c>
+      <c r="J9">
+        <f>J$3 / (1 + $B$9)^J$4</f>
+        <v>6124.4866532320248</v>
+      </c>
+      <c r="K9">
+        <f>K$3 / (1 + $B$9)^K$4</f>
+        <v>6265.8268164749734</v>
+      </c>
+      <c r="L9">
+        <f>L$3 / (1 + $B$9)^L$4</f>
+        <v>6453.3811918155852</v>
+      </c>
+      <c r="M9">
+        <f>M$3 / (1 + $B$9)^M$4</f>
+        <v>6044.3371460727376</v>
+      </c>
+      <c r="N9">
+        <f>N$3 / (1 + $B$9)^N$4</f>
+        <v>5659.2780484631176</v>
+      </c>
+      <c r="O9">
+        <f>O$3 / (1 + $B$9)^O$4</f>
+        <v>13502.128542653682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9.2249999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <f>SUM(E10:O10)</f>
+        <v>24241.428454638073</v>
+      </c>
+      <c r="E10">
+        <f>E$3 / (1 + $B$10)^E$4</f>
+        <v>-45000</v>
+      </c>
+      <c r="F10">
+        <f>F$3 / (1 + $B$10)^F$4</f>
+        <v>7104.4579741105263</v>
+      </c>
+      <c r="G10">
+        <f>G$3 / (1 + $B$10)^G$4</f>
+        <v>5785.9549510528768</v>
+      </c>
+      <c r="H10">
+        <f>H$3 / (1 + $B$10)^H$4</f>
+        <v>5888.812994285382</v>
+      </c>
+      <c r="I10">
+        <f>I$3 / (1 + $B$10)^I$4</f>
+        <v>6115.7898802554646</v>
+      </c>
+      <c r="J10">
+        <f>J$3 / (1 + $B$10)^J$4</f>
+        <v>6150.6046675131138</v>
+      </c>
+      <c r="K10">
+        <f>K$3 / (1 + $B$10)^K$4</f>
+        <v>6297.9053903033209</v>
+      </c>
+      <c r="L10">
+        <f>L$3 / (1 + $B$10)^L$4</f>
+        <v>6491.9428549058275</v>
+      </c>
+      <c r="M10">
+        <f>M$3 / (1 + $B$10)^M$4</f>
+        <v>6085.6318230628531</v>
+      </c>
+      <c r="N10">
+        <f>N$3 / (1 + $B$10)^N$4</f>
+        <v>5702.7935488579587</v>
+      </c>
+      <c r="O10">
+        <f>O$3 / (1 + $B$10)^O$4</f>
+        <v>13617.534370290748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E14" s="8">
+        <v>2008</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2015</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <f>E3</f>
+        <v>-45000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:O15" si="0">F3</f>
+        <v>7759.844222222222</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6902.7024777777769</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>7673.5075222222222</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>8704.4386666666651</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>9561.5451555555574</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>10693.711233333335</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>12040.071388888882</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>12327.701255555558</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>12617.87236666667</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>32909.327977777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="B17" s="14">
+        <v>6.9708000000000006E-2</v>
+      </c>
+      <c r="C17">
+        <f>SUM(E17:O17)</f>
+        <v>33525.416884643906</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <f>E$15 / (1 + $B$17)^E$16</f>
+        <v>-45000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:O17" si="1">F$15 / (1 + $B$17)^F$16</f>
+        <v>7254.1705046818579</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>6032.379663583838</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6268.9988748611431</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>6647.8283072293107</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>6826.559212217745</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>7137.3499305952118</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>7512.2901868517029</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>7190.5175599669128</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>6880.1663085609534</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>16775.156336095228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="B18" s="14">
+        <v>8.1444000000000003E-2</v>
+      </c>
+      <c r="C18">
+        <f>SUM(E18:O18)</f>
+        <v>28484.797578925132</v>
+      </c>
+      <c r="E18">
+        <f>E$15 / (1 + $B$18)^E$16</f>
+        <v>-45000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:O18" si="2">F$15 / (1 + $B$18)^F$16</f>
+        <v>7175.4471079614123</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>5902.1614312226138</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>6067.1092710080675</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>6363.9187711358782</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>6464.0975700268473</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>6685.043533643744</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>6959.8649695213289</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>6589.459873626367</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>6236.6275808789869</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>15041.067469899881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="B19" s="14">
+        <v>9.3179999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <f>SUM(E19:O19)</f>
+        <v>23892.768307649247</v>
+      </c>
+      <c r="E19">
+        <f>E$15 / (1 + $B$19)^E$16</f>
+        <v>-45000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:O19" si="3">F$15 / (1 + $B$19)^F$16</f>
+        <v>7098.4140052161783</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>5776.114578480644</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>5873.7964234376914</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>6095.0049018026084</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>6124.4866532320248</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>6265.8268164749734</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>6453.3811918155852</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>6044.3371460727376</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>5659.2780484631176</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>13502.128542653682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.104916</v>
+      </c>
+      <c r="C20">
+        <f>SUM(E20:O20)</f>
+        <v>19702.203368953898</v>
+      </c>
+      <c r="E20">
+        <f>E$15 / (1 + $B$20)^E$16</f>
+        <v>-45000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:O20" si="4">F$15 / (1 + $B$20)^F$16</f>
+        <v>7023.0173354555654</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>5654.062822714619</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>5688.6096752157919</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>5840.1462025229666</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>5806.0633185348906</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>5876.961928723008</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5988.5850846306812</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>5549.4251891790409</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>5140.7060039675926</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>12134.62580800974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.11665200000000001</v>
+      </c>
+      <c r="C21">
+        <f>SUM(E21:O21)</f>
+        <v>15871.531258206831</v>
+      </c>
+      <c r="E21">
+        <f>E$15 / (1 + $B$21)^E$16</f>
+        <v>-45000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:O21" si="5">F$15 / (1 + $B$21)^F$16</f>
+        <v>6949.2055020026137</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>5535.8390959811186</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>5511.1264885698829</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>5598.4702798416474</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>5507.3013353226015</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>5515.9632471510622</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>5561.6560236369205</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>5099.6376219619497</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>4674.395950436915</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>10917.935713302115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E24" s="8">
+        <v>2008</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <f>E3</f>
+        <v>-45000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:O25" si="6">F3</f>
+        <v>7759.844222222222</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>6902.7024777777769</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>7673.5075222222222</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>8704.4386666666651</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>9561.5451555555574</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>10693.711233333335</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>12040.071388888882</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>12327.701255555558</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>12617.87236666667</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>32909.327977777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>